--- a/data/Text.xlsx
+++ b/data/Text.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GenshinSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E80FA4-E5DB-435C-848A-97A5278D0E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B167CA4-EA54-429E-BC41-27A3263502C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="Character" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,21 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>CN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击·西风剑术·宗室</t>
-  </si>
-  <si>
-    <t>Skill.Eula.Attack.Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill.Eula.Attack.Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击
@@ -62,25 +55,6 @@
     <t>一段伤害</t>
   </si>
   <si>
-    <t>Skill.Common.SkillDamage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill.Common.SkillDamage2</t>
-  </si>
-  <si>
-    <t>Skill.Common.SkillDamage3</t>
-  </si>
-  <si>
-    <t>Skill.Common.SkillDamage4</t>
-  </si>
-  <si>
-    <t>Skill.Common.SkillDamage5</t>
-  </si>
-  <si>
-    <t>Skill.Common.SkillDamage6</t>
-  </si>
-  <si>
     <t>二段伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,18 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill.Common.SkillDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill.Common.ChargedAttackLoopDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重击循环伤害</t>
   </si>
   <si>
@@ -120,22 +86,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill.Common.ChargedAttackFinalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill.Common.PlungeDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下坠期间伤害</t>
   </si>
   <si>
-    <t>Skill.Common.LowHighPlungeDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>低空/高空坠地冲击伤害</t>
+  </si>
+  <si>
+    <t>Skill.SkillDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.SkillDamage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.SkillDamage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.SkillDamage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.SkillDamage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.SkillDamage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.SkillDamage6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.ChargedAttackLoopDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.ChargedAttackFinalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.PlungeDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.LowHighPlungeDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.Attack.Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.Attack.Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优菈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.ElementalSkill.Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.ElementalSkill.Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.ElementalBurst.Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.ElementalBurstDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.HoldDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点按伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.DefenseBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.AttackBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.CryoResistanceShred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰元素抗性降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.PhysicalResistanceShred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.PressDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.ElementalSkill.IcewhirlBrandDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.PerStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰潮的涡旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝浪之光剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛烈挥舞大剑，对周围的敌人造成冰元素伤害，并创造一柄跟随自己，至多持续存在7秒的光降之剑。
+在持续期间内，光降之剑会提高优菈自己的抗打断能力，并在优菈自己的普通攻击、元素战技或元素爆发对敌人造成伤害时，为光降之剑积蓄能量。每0.1秒只能积攒一层能量。
+持续时间结束后，光降之剑会降下并猛烈爆发，对周围的敌人造成物理伤害。
+此伤害受益于光降之剑积蓄的能量层数。
+优菈退场时，光降之剑会立即爆发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒的冰气、迅捷的剑舞。
+点按
+快速挥斩，造成冰元素伤害。
+命中敌人时，优菈自己获得一层冷酷之心效果，最多叠加2次，每0.3秒内只能触发1次。
+冷酷之心
+提高优菈的抗打断能力和防御力。
+长按
+消耗所有的冷酷之心效果，并挥舞大剑向前挥砍，对前方的敌人造成冰元素范围伤害。
+若消耗了冷酷之心效果，会使身边的敌人的物理抗性与冰元素抗性降低。
+每一层被消耗的冷酷之心会转化为一柄冰涡之剑，对附近的敌人造成冰元素伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰涡之剑伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.ElementalBurst.LightfallSwordBaseDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量层数上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层能量伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.ElementalBurst.DamagePerStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光降之剑基础伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.ElementalBurst.MaxNumStacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,71 +634,71 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -559,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -567,36 +714,156 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="114" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -604,4 +871,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3060E715-8480-4CDD-9F0A-691F45CFF4D8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="43.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>